--- a/public/templates/iDtr_result - Gio Dela Peña.xlsx
+++ b/public/templates/iDtr_result - Gio Dela Peña.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">Civil Service Form No. 48                                                                 </t>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>2:47</t>
+  </si>
+  <si>
+    <t>8:58</t>
+  </si>
+  <si>
+    <t>2:02</t>
   </si>
   <si>
     <t>(SEE INSTRUCTION ON BACK)</t>
@@ -1240,7 +1246,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" showGridLines="true" showRowColHeaders="1" topLeftCell="A3">
       <selection activeCell="B15" sqref="B15:H15"/>
@@ -1403,110 +1409,129 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="16.5">
-      <c r="B15" s="47" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="16.5">
+      <c r="B16" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="9">
+        <f>SUM(G12:G15)</f>
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H12:H15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customHeight="1" ht="24">
+      <c r="B17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="9">
-        <f>SUM(G12:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <f>SUM(H12:H14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="24">
-      <c r="B16" s="24" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B17" s="27" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+    </row>
+    <row r="23" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1514,22 +1539,22 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
